--- a/data/account portfolios.xlsx
+++ b/data/account portfolios.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hidemi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidemiasakura/Dropbox/multi-tsdp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="22780" yWindow="860" windowWidth="10000" windowHeight="8260"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dictionary!$A$1:$AB$38</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1670,16 +1678,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AO38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="AF39" sqref="AF39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1812,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>221</v>
       </c>
@@ -1937,7 +1945,7 @@
         <v>[ZT</v>
       </c>
     </row>
-    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2070,7 +2078,7 @@
         <v>[ZT</v>
       </c>
     </row>
-    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -2203,7 +2211,7 @@
         <v>[ZT</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -2333,7 +2341,7 @@
         <v>[ZT</v>
       </c>
     </row>
-    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2466,7 +2474,7 @@
         <v>[ZT</v>
       </c>
     </row>
-    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -2599,7 +2607,7 @@
         <v>[ZT,ZW</v>
       </c>
     </row>
-    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -2735,7 +2743,7 @@
         <v>[ZT,ZW,ZN</v>
       </c>
     </row>
-    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -2868,7 +2876,7 @@
         <v>[ZT,ZW,ZN</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3001,7 +3009,7 @@
         <v>[ZT,ZW,ZN,AUD</v>
       </c>
     </row>
-    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -3134,7 +3142,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3264,7 +3272,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -3394,7 +3402,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -3527,7 +3535,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -3657,7 +3665,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY</v>
       </c>
     </row>
-    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -3790,7 +3798,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY</v>
       </c>
     </row>
-    <row r="17" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>183</v>
       </c>
@@ -3923,7 +3931,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -4053,7 +4061,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY</v>
       </c>
     </row>
-    <row r="19" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -4186,7 +4194,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY</v>
       </c>
     </row>
-    <row r="20" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -4319,7 +4327,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE</v>
       </c>
     </row>
-    <row r="21" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -4452,7 +4460,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -4582,7 +4590,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE</v>
       </c>
     </row>
-    <row r="23" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -4715,7 +4723,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE</v>
       </c>
     </row>
-    <row r="24" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>234</v>
       </c>
@@ -4848,7 +4856,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB</v>
       </c>
     </row>
-    <row r="25" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -4981,7 +4989,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC</v>
       </c>
     </row>
-    <row r="26" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>167</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC</v>
       </c>
     </row>
-    <row r="27" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -5244,7 +5252,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC,NQ</v>
       </c>
     </row>
-    <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -5374,7 +5382,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC,NQ</v>
       </c>
     </row>
-    <row r="29" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5507,7 +5515,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC,NQ</v>
       </c>
     </row>
-    <row r="30" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -5642,7 +5650,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC,NQ,NG</v>
       </c>
     </row>
-    <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -5775,7 +5783,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC,NQ,NG,GF</v>
       </c>
     </row>
-    <row r="32" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -5908,7 +5916,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC,NQ,NG,GF</v>
       </c>
     </row>
-    <row r="33" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -6038,7 +6046,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC,NQ,NG,GF</v>
       </c>
     </row>
-    <row r="34" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>190</v>
       </c>
@@ -6171,7 +6179,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC,NQ,NG,GF,RB</v>
       </c>
     </row>
-    <row r="35" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -6304,7 +6312,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC,NQ,NG,GF,RB,PA</v>
       </c>
     </row>
-    <row r="36" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="AG36">
         <f>SUM(AG2:AG35)</f>
         <v>2078.6938992280002</v>
@@ -6342,7 +6350,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC,NQ,NG,GF,RB,PA</v>
       </c>
     </row>
-    <row r="37" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="AF37" t="s">
         <v>259</v>
       </c>
@@ -6371,7 +6379,7 @@
         <v>[ZT,ZW,ZN,AUD,ZS,JPY,LE,ZB,GC,NQ,NG,GF,RB,PA]</v>
       </c>
     </row>
-    <row r="38" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="AF38" t="s">
         <v>266</v>
       </c>
@@ -6380,7 +6388,7 @@
   <autoFilter ref="A1:AB38">
     <filterColumn colId="21">
       <filters>
-        <filter val="currency"/>
+        <filter val="grain"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6395,33 +6403,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>107</v>
       </c>
@@ -6444,27 +6452,27 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>274</v>
       </c>
